--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplomQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2118B92E-7477-4143-8ACF-5680223CB5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41266C-844F-4ED7-8652-BDD5D929C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0F790D7-FB36-4930-A43B-8059BD919EC0}"/>
   </bookViews>
@@ -35,9 +35,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+  <si>
+    <t>Группа проверок/модуль</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Авторизация зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Авторизация незарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя с пустыми полями "Логин" и "Пароль"</t>
+  </si>
+  <si>
+    <t>Переход в  раздел меню "Новости"</t>
+  </si>
+  <si>
+    <t>Переход в раздел меню "О приложении"</t>
+  </si>
+  <si>
+    <t>Раздел "Главная" приложения</t>
+  </si>
+  <si>
+    <t>Скрытие/раскрытие краткого списка "Новости"</t>
+  </si>
+  <si>
+    <t>Открытие полного списка "ВСЕ НОВОСТИ"</t>
+  </si>
+  <si>
+    <t>Открытие/закрытие выбранной новости</t>
+  </si>
+  <si>
+    <t>Раздел "Новости" приложения</t>
+  </si>
+  <si>
+    <t>Обновление экрана</t>
+  </si>
+  <si>
+    <t>Скроллинг новостей</t>
+  </si>
+  <si>
+    <t>Добавление новости с заполненными полями</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненными полями</t>
+  </si>
+  <si>
+    <t>Редактирование и сохранение новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>Сортировка новостей</t>
+  </si>
+  <si>
+    <t>Раздел "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>Скроллинг цитат</t>
+  </si>
+  <si>
+    <t>Закрытие цитаты</t>
+  </si>
+  <si>
+    <t>Открытие цитаты для чтения</t>
+  </si>
+  <si>
+    <t>Выход из приложения</t>
+  </si>
+  <si>
+    <t>Нефункциональное тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t>Проверка работы приложения в портретной и ландшафтной ориентациях</t>
+  </si>
+  <si>
+    <t>Проверка удобства навигации между разделами приложения</t>
+  </si>
+  <si>
+    <t>Проверка работы приложения в светлой теме</t>
+  </si>
+  <si>
+    <t>Проверка работы приложения в темной теме</t>
+  </si>
+  <si>
+    <t>Навигация по разделам Hamburger - меню главной формы приложения</t>
+  </si>
+  <si>
+    <t>Переход в  Hamburger - меню главной формы</t>
+  </si>
+  <si>
+    <t>Проверка AppBar структуры</t>
+  </si>
+  <si>
+    <t>Проверка взаимодействия посредством жестов (свайпы, тапы, пинч-зум и др.)</t>
+  </si>
+  <si>
+    <t>Тестирование адаптации к различным разрешениям экрана</t>
+  </si>
+  <si>
+    <t>Проверка четкости изображений и текста на устройствах с разными DPI</t>
+  </si>
+  <si>
+    <t>Тестирование безопасности</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя при использовании в поле логина SQL или XSS инъекции</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя при использовании в поле пароля SQL или XSS инъекции</t>
+  </si>
+  <si>
+    <t>Тестирование прерываний</t>
+  </si>
+  <si>
+    <t>Разрыв соединения во время авторизации</t>
+  </si>
+  <si>
+    <t>Разрыв соединения во время создания новости</t>
+  </si>
+  <si>
+    <t>Входящий СМС во время создания новости</t>
+  </si>
+  <si>
+    <t>Тестирование типов подключений</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании сети 3G</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании сети LTE</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании подключения к интернету через Wi-Fi</t>
+  </si>
+  <si>
+    <t>Работа приложения при отсутствии подключения к интернету</t>
+  </si>
+  <si>
+    <t>Работа приложения при активном "режиме полета" устройства</t>
+  </si>
+  <si>
+    <t>Тестирование установки</t>
+  </si>
+  <si>
+    <t>Установить</t>
+  </si>
+  <si>
+    <t>Удалить</t>
+  </si>
+  <si>
+    <t>Проверка перехода по ссылке на политику конфиденциальности из самого приложения</t>
+  </si>
+  <si>
+    <t>Проверка перехода по ссылке на пользовательское соглашение из самого приложения</t>
+  </si>
+  <si>
+    <t>Раздел "О приложении"</t>
+  </si>
+  <si>
+    <t>Проверка отображения ссылки на политику конфиденциальности</t>
+  </si>
+  <si>
+    <t>Проверка отображения ссылки на пользовательское соглашение в разделе</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +249,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -63,12 +280,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,12 +763,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF9829B-F809-4E9D-8E89-EE0145F2A1BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="56.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+      <c r="B39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplomQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41266C-844F-4ED7-8652-BDD5D929C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89679A-1335-4B3A-AC2D-0C4C674498C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0F790D7-FB36-4930-A43B-8059BD919EC0}"/>
   </bookViews>
@@ -373,7 +373,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -384,50 +402,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +766,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D49"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,15 +792,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1062,10 +1062,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1076,8 +1076,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1088,8 +1088,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1100,8 +1100,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1126,18 +1126,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1196,8 +1196,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1208,8 +1208,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1220,8 +1220,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1232,10 +1232,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1246,8 +1246,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
@@ -1296,10 +1296,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1310,8 +1310,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1322,8 +1322,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1334,8 +1334,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1346,8 +1346,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1372,7 +1372,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
@@ -1385,6 +1385,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A29:D29"/>
@@ -1392,12 +1398,6 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplomQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89679A-1335-4B3A-AC2D-0C4C674498C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F7B280-FF27-487D-845A-10F5CBE1F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0F790D7-FB36-4930-A43B-8059BD919EC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -204,15 +204,6 @@
   </si>
   <si>
     <t>Работа приложения при активном "режиме полета" устройства</t>
-  </si>
-  <si>
-    <t>Тестирование установки</t>
-  </si>
-  <si>
-    <t>Установить</t>
-  </si>
-  <si>
-    <t>Удалить</t>
   </si>
   <si>
     <t>Проверка перехода по ссылке на политику конфиденциальности из самого приложения</t>
@@ -365,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -375,6 +366,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,24 +405,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -414,21 +420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -763,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF9829B-F809-4E9D-8E89-EE0145F2A1BB}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,15 +787,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -814,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -826,7 +821,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -852,7 +847,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,7 +859,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -876,7 +871,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -890,7 +885,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,7 +897,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,19 +909,19 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -940,7 +935,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -952,7 +947,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -964,7 +959,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -976,7 +971,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,43 +983,43 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1038,7 +1033,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1045,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1062,11 +1057,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
+      <c r="A24" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1076,9 +1071,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -1088,9 +1083,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -1100,9 +1095,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -1126,116 +1121,116 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1246,8 +1241,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1258,10 +1253,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1272,8 +1267,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1284,8 +1279,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1296,10 +1291,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1310,8 +1305,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1322,8 +1317,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1334,8 +1329,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1346,8 +1341,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1357,47 +1352,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A47"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
